--- a/P0090/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0090/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0090\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E055E3F-FE06-4D70-B04B-678B3B606372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{3E055E3F-FE06-4D70-B04B-678B3B606372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6255872-F0C1-4F0D-84F8-32D1B6E5017F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -95,13 +95,16 @@
     <t>P0090</t>
   </si>
   <si>
+    <t>PR0001</t>
+  </si>
+  <si>
     <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0090/02_PRODUCTOS/Lineamientos PMA_sis productivos in situ/46.pdf</t>
   </si>
   <si>
     <t>Instituto de Investigación de Recursos Alexander von Humbolt</t>
   </si>
   <si>
-    <t>CITES</t>
+    <t>NA</t>
   </si>
   <si>
     <t>El documento corresponde al libro “Lineamientos para el manejo sostenible de sistemas de aprovechamiento de recursos naturales in situ”. Esta publicación hace parte del trabajo realizado dentro del proyecto “Lineamientos para hacer planes de manera costo-efectiva”. El documento aborda la necesidad de establecer prácticas sostenibles en el uso de la biodiversidad en Colombia. Su objetivo principal es proporcionar directrices y protocolos que faciliten la conservación y el aprovechamiento responsable de los recursos naturales, promoviendo un equilibrio entre la producción y la sostenibilidad ambiental</t>
@@ -119,13 +122,13 @@
     <t>No</t>
   </si>
   <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Aunque la información que presenta el documento es de carácter nacional, es altamente relevante para la toma de decisiones en el ámbito del manejo de recursos naturales. Las recomendaciones son prácticas y pueden ser implementadas por las autoridades ambientales y las comunidades locales</t>
   </si>
   <si>
-    <t>Biodiversidad, Regulación, Políticas públicas, Sostenibilidad, Aprovechamiento sostenible, Recursos naturales in situ, Manejo sostenible, Plan de manejo, Protocolos de manejo, Conservación, Biocomercio, Desarrollo sostenible, Desarrollo económico, Empresas, Manejo adaptativo, Estudios de caso, Sistemas de aprovechamiento in situ, Recursos silvestres</t>
+    <t>Biodiversidad, regulación, políticas públicas, sostenibilidad, aprovechamiento sostenible, recursos naturales in situ, manejo sostenible, plan de manejo, protocolos de manejo, conservación, biocomercio, desarrollo sostenible, desarrollo económico, empresas, manejo adaptativo, estudios de caso, sistemas de aprovechamiento in situ, recursos silvestres</t>
+  </si>
+  <si>
+    <t>PR0002</t>
   </si>
   <si>
     <t>biosintesis_16</t>
@@ -143,50 +146,35 @@
     <t>La información presentada es altamente relevante para la formulación de políticas públicas y la toma de decisiones en el ámbito ambiental y minero. Las recomendaciones sobre la legalización de la minería y la creación de cooperativas son especialmente pertinentes, ya que podrían contribuir a un manejo más sostenible de los recursos y a la reducción de la contaminación</t>
   </si>
   <si>
-    <t>Contaminación, Mercurio, Minería, Biodiversidad, Instrumentos económicos, Impuestos ambientales, Tecnologías limpias, Salud pública, Regulación, Legalización, Costos ambientales, La Mojana, Políticas públicas, Sostenibilidad</t>
+    <t>Contaminación, mercurio, minería, biodiversidad, instrumentos económicos, impuestos ambientales, tecnologías limpias, salud pública, regulación, legalización, costos ambientales, La Mojana, políticas públicas, sostenibilidad</t>
+  </si>
+  <si>
+    <t>PR0003</t>
   </si>
   <si>
     <t>17.2_hojas_de_ruta_basadas_en_las_lecciones_aprendidas_de_restauracion_ conservacion_sbn_y_conflictos_ambientales_en_un_paisaje_priorizado</t>
   </si>
   <si>
-    <t>El informe presento un análisis integral de diversas iniciativas en Colombia, enfocándose en la restauración ecológica y la conservación de la biodiversidad. Su objetivo principal fue proporcionar un marco de referencia para la implementación de medidas efectivas de conservación y restauración, basadas en experiencias previas y en la participación activa de las comunidades locales. El documento se estructuró de la siguiente manera: resumen, Sección 1: Lecciones aprendidas y Sección 2: Hoja de ruta para la selección de medidas SbN en un paisaje priorizado.</t>
-  </si>
-  <si>
-    <t>El informe presento un análisis exhaustivo de las lecciones aprendidas en proyectos de restauración y conservación en Colombia, así como la implementación de soluciones basadas en la naturaleza (SbN) en contextos de conflictos ambientales. A través de un enfoque participativo, se identificaron y priorizaron medidas SbN en colaboración con actores locales, lo que permitió un análisis detallado de la situación territorial, conflictos y amenazas, así como la identificación de objetos de conservación. La metodología utilizó, enfoque participativo para la identificación de medidas SbN, involucrando a actores locales en talleres donde se analizaron las condiciones y elementos de los ecosistemas. Los participantes contribuyeron con conceptos y criterios que son sistematizados por el equipo facilitador. Esta metodología permitó una comprensión más profunda de las necesidades locales y fomentó la apropiación de las soluciones propuestas. Los princiáles resultaron fueron los siguentes: 1. Lecciones aprendidas, en estas se documentaron experiencias exitosas en restauración ecológica, manejo de suelos, rehabilitación de humedales y bosques riparios, destacando la importancia de la regeneración natural y la restauración productiva, 2. Declaratorias de áreas protegidas,  se identificaron falencias en la estructuración de docuemntos para la declaración de áreas protegidas, sugiriendo la necesidad de mejorar la justificación y el análisis de criterios de representatividad e integridad, 3. Medidas SbN prioritarias, se establecieron criterios para la seleccioón de medidas SbN priorizando aquellas que mejor se alinean con las necesidades ecológicas y sociales del territorio y  4. Participación comunitaria, se enfatizó la importancia de involucrar a las comunidades locales en el proceso de indentificación y priorización de soluciones, lo que fortalece la gestión ambiental y la sostenibilidad. Por último, este inorme concluyo que, aunque se ha logrado avances en la restauración y conservación, es crucial mejorar la calidad de los documentos de justificación para áreas protegidas y fomentar un enfoque más sitematico en la planificación de la conservación. Además, se recomiendo la implementación de talleres participativos para la selección de medidas SbN asegurando que estas sean contextualmente relevantes y efectivas.</t>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0090/02_PRODUCTOS/Lecciones aprendidas de restauración/17.2_hojas_de_ruta_basadas_en_las_lecciones_aprendidas_de_restauracion_ conservacion_sbn_y_conflictos_ambientales_en_un_paisaje_priorizado.pdf</t>
+  </si>
+  <si>
+    <t>El informe presentó un análisis integral de diversas iniciativas en Colombia, enfocándose en la restauración ecológica y la conservación de la biodiversidad. Su objetivo principal fue proporcionar un marco de referencia para la implementación de medidas efectivas de conservación y restauración, basadas en experiencias previas y en la participación activa de las comunidades locales. El documento se estructuró de la siguiente manera: resumen, Sección 1: Lecciones aprendidas y Sección 2: Hoja de ruta para la selección de medidas de Soluciones basadas en la Naturaleza (SbN) en un paisaje priorizado.</t>
+  </si>
+  <si>
+    <t>El informe presentó un análisis exhaustivo de las lecciones aprendidas en proyectos de restauración y conservación en Colombia, así como la implementación de soluciones basadas en la naturaleza (SbN) en contextos de conflictos ambientales. A través de un enfoque participativo, se identificaron y priorizaron medidas SbN en colaboración con actores locales, lo que permitió un análisis detallado de la situación territorial, conflictos y amenazas, así como la identificación de objetos de conservación. La metodología utilizó, un enfoque participativo para la identificación de medidas SbN, involucrando a actores locales en talleres, donde se analizaron las condiciones y elementos de los ecosistemas. Los participantes contribuyeron con conceptos y criterios que son sistematizados por el equipo facilitador. Esta metodología permitió una comprensión más profunda de las necesidades locales y fomentó la apropiación de las soluciones propuestas. Los principales resultaron fueron los siguientes: 1. Lecciones aprendidas, en estas se documentaron experiencias exitosas en restauración ecológica, manejo de suelos, rehabilitación de humedales y bosques riparios, destacando la importancia de la regeneración natural y la restauración productiva, 2. Declaratorias de áreas protegidas,  se identificaron falencias en la estructuración de documentos para la declaración de áreas protegidas, sugiriendo la necesidad de mejorar la justificación y el análisis de criterios de representatividad e integridad, 3. Medidas SbN prioritarias, se establecieron criterios para la selección de medidas SbN priorizando aquellas que mejor se alinean con las necesidades ecológicas y sociales del territorio y  4. Participación comunitaria, se enfatizó la importancia de involucrar a las comunidades locales en el proceso de identificación y priorización de soluciones, lo que fortalece la gestión ambiental y la sostenibilidad. Por último, este informe concluyó que, aunque se ha logrado avances en la restauración y conservación, es crucial mejorar la calidad de los documentos de justificación para áreas protegidas y fomentar un enfoque más sistemático en la planificación de la conservación. Se recomendó la implementación de talleres participativos para la selección de medidas SbN asegurando que estas sean contextualmente relevantes y efectivas.</t>
   </si>
   <si>
     <t>El documento presenta un análisis detallado de las lecciones aprendidas de diversos proyectos en Colombia, lo que proporciona un contexto valioso para la implementación de soluciones basadas en la naturaleza (SbN). La inclusión de ejemplos concretos, como los huertos familiares y las prácticas de ecoturismo, ilustra de manera efectiva cómo se pueden aplicar estas soluciones en la práctica.</t>
   </si>
   <si>
-    <t xml:space="preserve">Restauración ecológica, Conservación, Soluciones basadas en la Naturaleza, Conflictos ambientales, Áreas protegidas, Participación comunitaria, Regeneración natural, Bosques riparios, manejo de suelos, Prioridades ecológicas </t>
-  </si>
-  <si>
-    <t>CAF</t>
-  </si>
-  <si>
-    <t>TRAFFIC AMERICA DEL SUR, Embajada Real de los Paises Bajos, Banco Mundial, GEF</t>
-  </si>
-  <si>
-    <t>UNCTAD</t>
-  </si>
-  <si>
-    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0090/02_PRODUCTOS/Lecciones aprendidas de restauración/17.2_hojas_de_ruta_basadas_en_las_lecciones_aprendidas_de_restauracion_ conservacion_sbn_y_conflictos_ambientales_en_un_paisaje_priorizado.pdf</t>
-  </si>
-  <si>
-    <t>PR0001</t>
-  </si>
-  <si>
-    <t>PR0002</t>
-  </si>
-  <si>
-    <t>PR0003</t>
+    <t xml:space="preserve">Restauración ecológica, conservación, soluciones basadas en la naturaleza, conflictos ambientales, áreas protegidas, participación comunitaria, regeneración natural, bosques riparios, manejo de suelos, prioridades ecológicas </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +192,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -276,11 +271,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -306,42 +301,50 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
+      <font>
+        <u val="none"/>
+        <color rgb="FF000000"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <u val="none"/>
+        <color rgb="FF000000"/>
+      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -618,15 +621,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -634,6 +628,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -653,7 +656,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R4" totalsRowShown="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R4" totalsRowShown="0" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -943,11 +946,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
@@ -964,7 +967,7 @@
     <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1020,172 +1023,172 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>46</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
+      <c r="D2" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>2003</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="O2" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="P2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>28</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="4" t="s">
         <v>31</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E3" s="1">
         <v>1999</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="P3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1">
         <v>2022</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="P4" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1198,6 +1201,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1341,37 +1353,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
--- a/P0090/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0090/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28605"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\S3_Buckets\foa-prod-comp-fenomenologico-bucket\foa_puj_curada\P0090\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{3E055E3F-FE06-4D70-B04B-678B3B606372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6255872-F0C1-4F0D-84F8-32D1B6E5017F}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{3E055E3F-FE06-4D70-B04B-678B3B606372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{485C9ECB-73CF-47D2-BB45-E8B271B8F44C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -266,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -276,6 +276,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -947,7 +953,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:J2"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1023,14 +1029,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" ht="15" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="7">
         <v>46</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -1054,7 +1060,7 @@
       <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="8" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
@@ -1063,7 +1069,7 @@
       <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="8" t="s">
         <v>26</v>
       </c>
       <c r="O2" s="5" t="s">
@@ -1079,7 +1085,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -1110,7 +1116,7 @@
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="8" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
@@ -1119,7 +1125,7 @@
       <c r="M3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="8" t="s">
         <v>34</v>
       </c>
       <c r="O3" s="5" t="s">
@@ -1166,7 +1172,7 @@
       <c r="J4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L4" s="3" t="s">
@@ -1201,15 +1207,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010097FB7C5121AAD04EA5DBB516CB842770" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ca6bde7a5d319871883c00f261789bac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3277f09b-73d6-4795-b7e6-f63d7d60cc69" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6422850a7e45dad78806fd17bfbce0a" ns2:_="">
     <xsd:import namespace="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
@@ -1353,10 +1350,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>